--- a/fuentes/contenidos/grado08/guion07/SolicitudGrafica_CN_08_07_CO_REC220.xlsx
+++ b/fuentes/contenidos/grado08/guion07/SolicitudGrafica_CN_08_07_CO_REC220.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magda\Desktop\2015\PLANETA\REC_CN_08_07_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
@@ -21,12 +16,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="200">
   <si>
     <t>Fecha:</t>
   </si>
@@ -624,6 +619,9 @@
   </si>
   <si>
     <t>Ilustración de amniocentesis</t>
+  </si>
+  <si>
+    <t>Doctor con un tubo de ensayo</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1767,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1812,7 +1810,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1820,20 +1818,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1867,7 +1851,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1875,20 +1859,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1922,7 +1892,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1930,20 +1900,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1977,7 +1933,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1985,20 +1941,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2032,7 +1974,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2040,20 +1982,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2087,7 +2015,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2095,20 +2023,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2142,7 +2056,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2150,20 +2064,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2499,9 +2399,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2439,7 @@
       </c>
       <c r="M1" s="2" t="str">
         <f>CONCATENATE('Definición técnica de imagenes'!$B$1," ",$G$5)</f>
-        <v>Ubicación de la imagen en el recurso F13</v>
+        <v>Ubicación de la imagen en el recurso F7</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2563,7 +2463,7 @@
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
-        <v>Simple</v>
+        <v>Inicio</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -2594,7 +2494,7 @@
       </c>
       <c r="M3" s="2" t="str">
         <f ca="1">IF($N3&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N3,1,1,1),"")</f>
-        <v>Doble</v>
+        <v>Contenido</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -2651,7 +2551,7 @@
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
@@ -2764,7 +2664,7 @@
       </c>
       <c r="E9" s="18" t="str">
         <f>IF($G$4="Recurso",$M$1,$L$1)</f>
-        <v>Ubicación de la imagen en el recurso F13</v>
+        <v>Ubicación de la imagen en el recurso F7</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>61</v>
@@ -2795,36 +2695,36 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="62">
-        <v>231333439</v>
+        <v>171603845</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso F13</v>
+        <v>Recurso F7</v>
       </c>
       <c r="D10" s="63" t="s">
         <v>190</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_07_REC220_IMG01n.jpg</v>
+        <v>CN_08_07_REC220_IMG01.jpg</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>240 x 375 px</v>
+        <v>350 x 230 px</v>
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_07_REC220_IMG01a.jpg</v>
+        <v/>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 460 px</v>
+        <v/>
       </c>
       <c r="J10" s="63" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2838,17 +2738,17 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="62">
-        <v>245318356</v>
+        <v>231333439</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F13</v>
+        <v>Recurso F7</v>
       </c>
       <c r="D11" s="63" t="s">
         <v>190</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2856,7 +2756,7 @@
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>240 x 185 px</v>
+        <v>320 x 480 px</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2864,55 +2764,55 @@
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 460 px</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="K11" s="65"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="64"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
       <c r="B12" s="62">
-        <v>65221747</v>
+        <v>245318356</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F13</v>
+        <v>Recurso F7</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>190</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_07_REC220_IMG03n.jpg</v>
+        <v>CN_08_07_REC220_IMG03.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>240 x 185 px</v>
+        <v>350 x 230 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_07_REC220_IMG03a.jpg</v>
+        <v/>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 460 px</v>
+        <v/>
       </c>
       <c r="J12" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" s="64"/>
+        <v>192</v>
+      </c>
+      <c r="K12" s="65"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
@@ -2924,17 +2824,17 @@
         <v>IMG04</v>
       </c>
       <c r="B13" s="62">
-        <v>263985446</v>
+        <v>65221747</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F13</v>
+        <v>Recurso F7</v>
       </c>
       <c r="D13" s="63" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2942,7 +2842,7 @@
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>240 x 185 px</v>
+        <v>320 x 480 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2950,14 +2850,12 @@
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 460 px</v>
+        <v>800 x 458 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>195</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
@@ -2969,36 +2867,36 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="62">
-        <v>264093866</v>
+        <v>263985446</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F13</v>
+        <v>Recurso F7</v>
       </c>
       <c r="D14" s="63" t="s">
         <v>190</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_07_REC220_IMG05n.jpg</v>
+        <v>CN_08_07_REC220_IMG05.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>240 x 185 px</v>
+        <v>350 x 230 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_07_REC220_IMG05a.jpg</v>
+        <v/>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 460 px</v>
+        <v/>
       </c>
       <c r="J14" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K14" s="64" t="s">
         <v>195</v>
@@ -3014,17 +2912,17 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="62">
-        <v>249287659</v>
+        <v>264093866</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F13</v>
+        <v>Recurso F7</v>
       </c>
       <c r="D15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3032,7 +2930,7 @@
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>240 x 185 px</v>
+        <v>320 x 480 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3040,90 +2938,100 @@
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 460 px</v>
-      </c>
-      <c r="J15" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>195</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
       <c r="B16" s="62">
-        <v>237975019</v>
+        <v>249287659</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F13</v>
+        <v>Recurso F7</v>
       </c>
       <c r="D16" s="63" t="s">
         <v>190</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_07_REC220_IMG07n.jpg</v>
+        <v>CN_08_07_REC220_IMG07.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>240 x 185 px</v>
+        <v>350 x 230 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_07_REC220_IMG07a.jpg</v>
+        <v/>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 460 px</v>
-      </c>
-      <c r="J16" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="68"/>
+        <v/>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="66"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62">
+        <v>237975019</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_08_07_REC220_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_08_07_REC220_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J17" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="68"/>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
